--- a/wpsBlankLineTest.xlsx
+++ b/wpsBlankLineTest.xlsx
@@ -436,12 +436,14 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>
+        0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>
+        0</v>
       </c>
     </row>
   </sheetData>

--- a/wpsBlankLineTest.xlsx
+++ b/wpsBlankLineTest.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -418,32 +418,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>
-        0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>
-        0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
